--- a/storage/imports/exportable_data/students_data/ready_to_import/data_hunza_class_8th.xlsx
+++ b/storage/imports/exportable_data/students_data/ready_to_import/data_hunza_class_8th.xlsx
@@ -1,62 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="1095" windowWidth="19335" windowHeight="6795"/>
+    <workbookView xWindow="876" yWindow="1092" windowWidth="19332" windowHeight="6792"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" forceFullCalc="1"/>
+  <calcPr calcId="124519" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="766">
-  <si>
-    <t>center_id</t>
-  </si>
-  <si>
-    <t>institution_id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>cell_no</t>
-  </si>
-  <si>
-    <t>home_address</t>
-  </si>
-  <si>
-    <t>student_type</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>challan_no</t>
-  </si>
-  <si>
-    <t>deposit_date</t>
-  </si>
-  <si>
-    <t>elective2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="752">
   <si>
     <t>Alishan</t>
   </si>
@@ -2643,13 +2601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P263"/>
+  <dimension ref="A1:P262"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262:XFD262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
@@ -2669,47 +2627,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1">
+        <v>16501</v>
+      </c>
+      <c r="B1">
+        <v>16501</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
+      <c r="H1">
+        <v>3425014159</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>1001</v>
+      </c>
+      <c r="L1">
+        <v>38</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="N1">
+        <v>550</v>
+      </c>
+      <c r="O1">
+        <v>1009</v>
+      </c>
+      <c r="P1">
+        <v>1008</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2720,25 +2684,22 @@
         <v>16501</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>3425014159</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -2750,7 +2711,7 @@
         <v>38</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N2">
         <v>550</v>
@@ -2770,22 +2731,25 @@
         <v>16501</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3495166568</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -2797,7 +2761,7 @@
         <v>38</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N3">
         <v>550</v>
@@ -2817,25 +2781,25 @@
         <v>16501</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>3495166568</v>
+        <v>3405996202</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -2847,7 +2811,7 @@
         <v>38</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>550</v>
@@ -2867,25 +2831,25 @@
         <v>16501</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>3405996202</v>
+        <v>3488530900</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2897,7 +2861,7 @@
         <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>550</v>
@@ -2917,25 +2881,22 @@
         <v>16501</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6">
-        <v>3488530900</v>
+        <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2947,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>550</v>
@@ -2967,22 +2928,25 @@
         <v>16501</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3411088446</v>
       </c>
       <c r="I7" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2994,7 +2958,7 @@
         <v>38</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N7">
         <v>550</v>
@@ -3014,25 +2978,22 @@
         <v>16501</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8">
-        <v>3411088446</v>
+        <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -3044,7 +3005,7 @@
         <v>38</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N8">
         <v>550</v>
@@ -3064,22 +3025,22 @@
         <v>16501</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -3091,7 +3052,7 @@
         <v>38</v>
       </c>
       <c r="M9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N9">
         <v>550</v>
@@ -3111,22 +3072,25 @@
         <v>16501</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>3120020401</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -3138,7 +3102,7 @@
         <v>38</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>550</v>
@@ -3158,25 +3122,22 @@
         <v>16501</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11">
-        <v>3120020401</v>
+        <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -3188,7 +3149,7 @@
         <v>38</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N11">
         <v>550</v>
@@ -3208,22 +3169,25 @@
         <v>16501</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>3554344827</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -3235,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <v>550</v>
@@ -3255,25 +3219,22 @@
         <v>16501</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13">
-        <v>3554344827</v>
+        <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -3285,7 +3246,7 @@
         <v>38</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>550</v>
@@ -3305,25 +3266,28 @@
         <v>16501</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>3554413790</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
         <v>1001</v>
@@ -3332,7 +3296,7 @@
         <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>550</v>
@@ -3352,25 +3316,25 @@
         <v>16501</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>3554413790</v>
+        <v>3554568668</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -3379,13 +3343,13 @@
         <v>1001</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="O15">
         <v>1009</v>
@@ -3396,52 +3360,43 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="B16">
-        <v>16501</v>
+        <v>16502</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16">
-        <v>3554568668</v>
-      </c>
-      <c r="I16" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1001</v>
       </c>
       <c r="L16">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N16">
-        <v>1000</v>
+        <v>450</v>
       </c>
       <c r="O16">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P16">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -3452,13 +3407,13 @@
         <v>16502</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -3473,7 +3428,7 @@
         <v>39</v>
       </c>
       <c r="M17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>450</v>
@@ -3493,16 +3448,16 @@
         <v>16502</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -3514,7 +3469,7 @@
         <v>39</v>
       </c>
       <c r="M18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N18">
         <v>450</v>
@@ -3531,19 +3486,28 @@
         <v>16502</v>
       </c>
       <c r="B19">
-        <v>16502</v>
+        <v>16687</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19">
+        <v>3555279539</v>
+      </c>
+      <c r="I19" t="s">
+        <v>59</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3555,10 +3519,10 @@
         <v>39</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N19">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="O19">
         <v>1008</v>
@@ -3569,31 +3533,31 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>16502</v>
+        <v>16503</v>
       </c>
       <c r="B20">
-        <v>16687</v>
+        <v>16503</v>
       </c>
       <c r="C20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H20">
-        <v>3555279539</v>
+        <v>3555553506</v>
       </c>
       <c r="I20" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3605,7 +3569,7 @@
         <v>39</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N20">
         <v>550</v>
@@ -3625,25 +3589,22 @@
         <v>16503</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H21">
-        <v>3555553506</v>
+        <v>59</v>
       </c>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -3655,7 +3616,7 @@
         <v>39</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N21">
         <v>550</v>
@@ -3675,22 +3636,22 @@
         <v>16503</v>
       </c>
       <c r="C22" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I22" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -3702,7 +3663,7 @@
         <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N22">
         <v>550</v>
@@ -3722,22 +3683,22 @@
         <v>16503</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I23" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -3749,7 +3710,7 @@
         <v>39</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N23">
         <v>550</v>
@@ -3769,22 +3730,22 @@
         <v>16503</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -3796,7 +3757,7 @@
         <v>39</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N24">
         <v>550</v>
@@ -3816,22 +3777,22 @@
         <v>16503</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -3843,7 +3804,7 @@
         <v>39</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N25">
         <v>550</v>
@@ -3863,22 +3824,22 @@
         <v>16503</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -3890,7 +3851,7 @@
         <v>39</v>
       </c>
       <c r="M26" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N26">
         <v>550</v>
@@ -3910,22 +3871,22 @@
         <v>16503</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I27" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -3937,7 +3898,7 @@
         <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N27">
         <v>550</v>
@@ -3957,22 +3918,22 @@
         <v>16503</v>
       </c>
       <c r="C28" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I28" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -3984,7 +3945,7 @@
         <v>39</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>550</v>
@@ -4004,22 +3965,22 @@
         <v>16503</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I29" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4031,7 +3992,7 @@
         <v>39</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N29">
         <v>550</v>
@@ -4051,22 +4012,22 @@
         <v>16503</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -4078,7 +4039,7 @@
         <v>39</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N30">
         <v>550</v>
@@ -4098,22 +4059,22 @@
         <v>16503</v>
       </c>
       <c r="C31" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I31" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -4125,7 +4086,7 @@
         <v>39</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N31">
         <v>550</v>
@@ -4145,22 +4106,22 @@
         <v>16503</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I32" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -4172,7 +4133,7 @@
         <v>39</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N32">
         <v>550</v>
@@ -4192,22 +4153,22 @@
         <v>16503</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -4219,7 +4180,7 @@
         <v>39</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N33">
         <v>550</v>
@@ -4239,22 +4200,22 @@
         <v>16503</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
         <v>102</v>
       </c>
-      <c r="E34" t="s">
-        <v>113</v>
-      </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -4266,7 +4227,7 @@
         <v>39</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N34">
         <v>550</v>
@@ -4286,22 +4247,22 @@
         <v>16503</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4313,7 +4274,7 @@
         <v>39</v>
       </c>
       <c r="M35" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N35">
         <v>550</v>
@@ -4333,22 +4294,22 @@
         <v>16503</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -4360,7 +4321,7 @@
         <v>39</v>
       </c>
       <c r="M36" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N36">
         <v>550</v>
@@ -4380,22 +4341,22 @@
         <v>16503</v>
       </c>
       <c r="C37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -4407,7 +4368,7 @@
         <v>39</v>
       </c>
       <c r="M37" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N37">
         <v>550</v>
@@ -4427,22 +4388,22 @@
         <v>16503</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="D38" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E38" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I38" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -4454,7 +4415,7 @@
         <v>39</v>
       </c>
       <c r="M38" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N38">
         <v>550</v>
@@ -4474,22 +4435,22 @@
         <v>16503</v>
       </c>
       <c r="C39" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D39" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I39" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -4501,7 +4462,7 @@
         <v>39</v>
       </c>
       <c r="M39" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N39">
         <v>550</v>
@@ -4521,22 +4482,22 @@
         <v>16503</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I40" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -4548,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="M40" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>550</v>
@@ -4562,28 +4523,28 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41">
-        <v>16503</v>
+        <v>16504</v>
       </c>
       <c r="B41">
-        <v>16503</v>
+        <v>16504</v>
       </c>
       <c r="C41" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D41" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I41" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4595,7 +4556,7 @@
         <v>39</v>
       </c>
       <c r="M41" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N41">
         <v>550</v>
@@ -4615,22 +4576,16 @@
         <v>16504</v>
       </c>
       <c r="C42" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E42" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F42">
         <v>1</v>
-      </c>
-      <c r="G42" t="s">
-        <v>73</v>
-      </c>
-      <c r="I42" t="s">
-        <v>73</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4642,7 +4597,7 @@
         <v>39</v>
       </c>
       <c r="M42" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N42">
         <v>550</v>
@@ -4662,13 +4617,13 @@
         <v>16504</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -4683,7 +4638,7 @@
         <v>39</v>
       </c>
       <c r="M43" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <v>550</v>
@@ -4703,13 +4658,13 @@
         <v>16504</v>
       </c>
       <c r="C44" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E44" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -4724,7 +4679,7 @@
         <v>39</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <v>550</v>
@@ -4744,13 +4699,13 @@
         <v>16504</v>
       </c>
       <c r="C45" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -4765,7 +4720,7 @@
         <v>39</v>
       </c>
       <c r="M45" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <v>550</v>
@@ -4785,13 +4740,13 @@
         <v>16504</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E46" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -4806,7 +4761,7 @@
         <v>39</v>
       </c>
       <c r="M46" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>550</v>
@@ -4826,13 +4781,13 @@
         <v>16504</v>
       </c>
       <c r="C47" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D47" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -4847,7 +4802,7 @@
         <v>39</v>
       </c>
       <c r="M47" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N47">
         <v>550</v>
@@ -4867,13 +4822,13 @@
         <v>16504</v>
       </c>
       <c r="C48" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -4888,7 +4843,7 @@
         <v>39</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>550</v>
@@ -4908,13 +4863,13 @@
         <v>16504</v>
       </c>
       <c r="C49" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -4929,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="M49" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N49">
         <v>550</v>
@@ -4949,13 +4904,13 @@
         <v>16504</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="E50" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -4970,7 +4925,7 @@
         <v>39</v>
       </c>
       <c r="M50" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N50">
         <v>550</v>
@@ -4990,13 +4945,13 @@
         <v>16504</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="E51" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -5011,7 +4966,7 @@
         <v>39</v>
       </c>
       <c r="M51" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N51">
         <v>550</v>
@@ -5031,13 +4986,13 @@
         <v>16504</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -5052,7 +5007,7 @@
         <v>39</v>
       </c>
       <c r="M52" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N52">
         <v>550</v>
@@ -5072,13 +5027,13 @@
         <v>16504</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -5093,7 +5048,7 @@
         <v>39</v>
       </c>
       <c r="M53" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N53">
         <v>550</v>
@@ -5113,16 +5068,16 @@
         <v>16504</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D54" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E54" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -5134,7 +5089,7 @@
         <v>39</v>
       </c>
       <c r="M54" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N54">
         <v>550</v>
@@ -5154,13 +5109,13 @@
         <v>16504</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D55" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="E55" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -5175,7 +5130,7 @@
         <v>39</v>
       </c>
       <c r="M55" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N55">
         <v>550</v>
@@ -5195,13 +5150,13 @@
         <v>16504</v>
       </c>
       <c r="C56" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="E56" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -5216,7 +5171,7 @@
         <v>39</v>
       </c>
       <c r="M56" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N56">
         <v>550</v>
@@ -5236,13 +5191,13 @@
         <v>16504</v>
       </c>
       <c r="C57" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -5257,7 +5212,7 @@
         <v>39</v>
       </c>
       <c r="M57" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N57">
         <v>550</v>
@@ -5277,13 +5232,13 @@
         <v>16504</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -5298,7 +5253,7 @@
         <v>39</v>
       </c>
       <c r="M58" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N58">
         <v>550</v>
@@ -5318,13 +5273,13 @@
         <v>16504</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D59" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E59" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -5339,7 +5294,7 @@
         <v>39</v>
       </c>
       <c r="M59" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N59">
         <v>550</v>
@@ -5359,13 +5314,13 @@
         <v>16504</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D60" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -5380,7 +5335,7 @@
         <v>39</v>
       </c>
       <c r="M60" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N60">
         <v>550</v>
@@ -5400,13 +5355,13 @@
         <v>16504</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D61" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -5421,7 +5376,7 @@
         <v>39</v>
       </c>
       <c r="M61" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N61">
         <v>550</v>
@@ -5441,13 +5396,13 @@
         <v>16504</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D62" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="E62" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -5462,7 +5417,7 @@
         <v>39</v>
       </c>
       <c r="M62" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N62">
         <v>550</v>
@@ -5482,13 +5437,13 @@
         <v>16504</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="E63" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -5503,7 +5458,7 @@
         <v>39</v>
       </c>
       <c r="M63" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N63">
         <v>550</v>
@@ -5523,13 +5478,13 @@
         <v>16504</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="D64" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E64" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -5544,7 +5499,7 @@
         <v>39</v>
       </c>
       <c r="M64" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N64">
         <v>550</v>
@@ -5558,19 +5513,19 @@
     </row>
     <row r="65" spans="1:16">
       <c r="A65">
-        <v>16504</v>
+        <v>16505</v>
       </c>
       <c r="B65">
-        <v>16504</v>
+        <v>16505</v>
       </c>
       <c r="C65" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>149</v>
+        <v>189</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -5582,19 +5537,19 @@
         <v>1001</v>
       </c>
       <c r="L65">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M65" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N65">
         <v>550</v>
       </c>
       <c r="O65">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P65">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -5605,13 +5560,13 @@
         <v>16505</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -5626,7 +5581,7 @@
         <v>40</v>
       </c>
       <c r="M66" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N66">
         <v>550</v>
@@ -5646,13 +5601,13 @@
         <v>16505</v>
       </c>
       <c r="C67" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -5667,7 +5622,7 @@
         <v>40</v>
       </c>
       <c r="M67" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N67">
         <v>550</v>
@@ -5687,13 +5642,13 @@
         <v>16505</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -5708,7 +5663,7 @@
         <v>40</v>
       </c>
       <c r="M68" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N68">
         <v>550</v>
@@ -5728,13 +5683,13 @@
         <v>16505</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -5749,7 +5704,7 @@
         <v>40</v>
       </c>
       <c r="M69" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N69">
         <v>550</v>
@@ -5769,13 +5724,13 @@
         <v>16505</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="E70" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -5790,7 +5745,7 @@
         <v>40</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N70">
         <v>550</v>
@@ -5810,13 +5765,13 @@
         <v>16505</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -5831,7 +5786,7 @@
         <v>40</v>
       </c>
       <c r="M71" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N71">
         <v>550</v>
@@ -5851,13 +5806,13 @@
         <v>16505</v>
       </c>
       <c r="C72" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -5872,7 +5827,7 @@
         <v>40</v>
       </c>
       <c r="M72" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N72">
         <v>550</v>
@@ -5892,13 +5847,13 @@
         <v>16505</v>
       </c>
       <c r="C73" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D73" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -5913,7 +5868,7 @@
         <v>40</v>
       </c>
       <c r="M73" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N73">
         <v>550</v>
@@ -5933,13 +5888,13 @@
         <v>16505</v>
       </c>
       <c r="C74" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="D74" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -5954,7 +5909,7 @@
         <v>40</v>
       </c>
       <c r="M74" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N74">
         <v>550</v>
@@ -5974,13 +5929,13 @@
         <v>16505</v>
       </c>
       <c r="C75" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D75" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E75" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -5995,7 +5950,7 @@
         <v>40</v>
       </c>
       <c r="M75" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N75">
         <v>550</v>
@@ -6015,13 +5970,13 @@
         <v>16505</v>
       </c>
       <c r="C76" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="E76" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -6036,7 +5991,7 @@
         <v>40</v>
       </c>
       <c r="M76" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N76">
         <v>550</v>
@@ -6056,13 +6011,13 @@
         <v>16505</v>
       </c>
       <c r="C77" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="D77" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E77" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -6077,7 +6032,7 @@
         <v>40</v>
       </c>
       <c r="M77" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N77">
         <v>550</v>
@@ -6097,13 +6052,13 @@
         <v>16505</v>
       </c>
       <c r="C78" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="D78" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="E78" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -6118,7 +6073,7 @@
         <v>40</v>
       </c>
       <c r="M78" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N78">
         <v>550</v>
@@ -6138,13 +6093,13 @@
         <v>16505</v>
       </c>
       <c r="C79" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D79" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -6159,7 +6114,7 @@
         <v>40</v>
       </c>
       <c r="M79" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N79">
         <v>550</v>
@@ -6179,13 +6134,13 @@
         <v>16505</v>
       </c>
       <c r="C80" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>216</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -6200,7 +6155,7 @@
         <v>40</v>
       </c>
       <c r="M80" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N80">
         <v>550</v>
@@ -6220,13 +6175,13 @@
         <v>16505</v>
       </c>
       <c r="C81" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="E81" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -6241,7 +6196,7 @@
         <v>40</v>
       </c>
       <c r="M81" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N81">
         <v>550</v>
@@ -6261,13 +6216,13 @@
         <v>16505</v>
       </c>
       <c r="C82" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
         <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -6282,7 +6237,7 @@
         <v>40</v>
       </c>
       <c r="M82" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N82">
         <v>550</v>
@@ -6302,13 +6257,13 @@
         <v>16505</v>
       </c>
       <c r="C83" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -6323,7 +6278,7 @@
         <v>40</v>
       </c>
       <c r="M83" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N83">
         <v>550</v>
@@ -6343,13 +6298,13 @@
         <v>16505</v>
       </c>
       <c r="C84" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="E84" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -6364,7 +6319,7 @@
         <v>40</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N84">
         <v>550</v>
@@ -6384,13 +6339,13 @@
         <v>16505</v>
       </c>
       <c r="C85" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -6405,7 +6360,7 @@
         <v>40</v>
       </c>
       <c r="M85" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N85">
         <v>550</v>
@@ -6425,13 +6380,13 @@
         <v>16505</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="D86" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E86" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -6446,7 +6401,7 @@
         <v>40</v>
       </c>
       <c r="M86" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N86">
         <v>550</v>
@@ -6466,13 +6421,13 @@
         <v>16505</v>
       </c>
       <c r="C87" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D87" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E87" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -6487,7 +6442,7 @@
         <v>40</v>
       </c>
       <c r="M87" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N87">
         <v>550</v>
@@ -6507,13 +6462,13 @@
         <v>16505</v>
       </c>
       <c r="C88" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="D88" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -6528,7 +6483,7 @@
         <v>40</v>
       </c>
       <c r="M88" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N88">
         <v>550</v>
@@ -6548,13 +6503,13 @@
         <v>16505</v>
       </c>
       <c r="C89" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E89" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -6569,7 +6524,7 @@
         <v>40</v>
       </c>
       <c r="M89" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N89">
         <v>550</v>
@@ -6589,13 +6544,13 @@
         <v>16505</v>
       </c>
       <c r="C90" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -6610,7 +6565,7 @@
         <v>40</v>
       </c>
       <c r="M90" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N90">
         <v>550</v>
@@ -6630,13 +6585,13 @@
         <v>16505</v>
       </c>
       <c r="C91" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="E91" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -6651,7 +6606,7 @@
         <v>40</v>
       </c>
       <c r="M91" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N91">
         <v>550</v>
@@ -6668,16 +6623,16 @@
         <v>16505</v>
       </c>
       <c r="B92">
-        <v>16505</v>
+        <v>16688</v>
       </c>
       <c r="C92" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="D92" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E92" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -6692,7 +6647,7 @@
         <v>40</v>
       </c>
       <c r="M92" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N92">
         <v>550</v>
@@ -6712,13 +6667,13 @@
         <v>16688</v>
       </c>
       <c r="C93" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -6733,7 +6688,7 @@
         <v>40</v>
       </c>
       <c r="M93" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N93">
         <v>550</v>
@@ -6753,13 +6708,13 @@
         <v>16688</v>
       </c>
       <c r="C94" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E94" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -6774,7 +6729,7 @@
         <v>40</v>
       </c>
       <c r="M94" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N94">
         <v>550</v>
@@ -6794,13 +6749,13 @@
         <v>16688</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="D95" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E95" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -6815,7 +6770,7 @@
         <v>40</v>
       </c>
       <c r="M95" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N95">
         <v>550</v>
@@ -6835,16 +6790,16 @@
         <v>16688</v>
       </c>
       <c r="C96" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="E96" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96">
         <v>0</v>
@@ -6856,7 +6811,7 @@
         <v>40</v>
       </c>
       <c r="M96" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N96">
         <v>550</v>
@@ -6876,13 +6831,13 @@
         <v>16688</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -6897,7 +6852,7 @@
         <v>40</v>
       </c>
       <c r="M97" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N97">
         <v>550</v>
@@ -6917,13 +6872,13 @@
         <v>16688</v>
       </c>
       <c r="C98" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -6938,7 +6893,7 @@
         <v>40</v>
       </c>
       <c r="M98" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N98">
         <v>550</v>
@@ -6958,13 +6913,13 @@
         <v>16688</v>
       </c>
       <c r="C99" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E99" t="s">
-        <v>294</v>
+        <v>91</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -6979,7 +6934,7 @@
         <v>40</v>
       </c>
       <c r="M99" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N99">
         <v>550</v>
@@ -6993,22 +6948,22 @@
     </row>
     <row r="100" spans="1:16">
       <c r="A100">
-        <v>16505</v>
+        <v>16506</v>
       </c>
       <c r="B100">
-        <v>16688</v>
+        <v>16506</v>
       </c>
       <c r="C100" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="D100" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="E100" t="s">
-        <v>105</v>
+        <v>285</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -7020,7 +6975,7 @@
         <v>40</v>
       </c>
       <c r="M100" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N100">
         <v>550</v>
@@ -7040,13 +6995,13 @@
         <v>16506</v>
       </c>
       <c r="C101" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D101" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E101" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F101">
         <v>0</v>
@@ -7061,7 +7016,7 @@
         <v>40</v>
       </c>
       <c r="M101" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N101">
         <v>550</v>
@@ -7081,13 +7036,13 @@
         <v>16506</v>
       </c>
       <c r="C102" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="D102" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E102" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -7102,7 +7057,7 @@
         <v>40</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N102">
         <v>550</v>
@@ -7122,13 +7077,13 @@
         <v>16506</v>
       </c>
       <c r="C103" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E103" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -7143,7 +7098,7 @@
         <v>40</v>
       </c>
       <c r="M103" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N103">
         <v>550</v>
@@ -7163,13 +7118,13 @@
         <v>16506</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="D104" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E104" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -7184,7 +7139,7 @@
         <v>40</v>
       </c>
       <c r="M104" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N104">
         <v>550</v>
@@ -7204,13 +7159,13 @@
         <v>16506</v>
       </c>
       <c r="C105" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D105" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E105" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -7225,7 +7180,7 @@
         <v>40</v>
       </c>
       <c r="M105" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N105">
         <v>550</v>
@@ -7245,13 +7200,13 @@
         <v>16506</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="D106" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -7266,7 +7221,7 @@
         <v>40</v>
       </c>
       <c r="M106" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N106">
         <v>550</v>
@@ -7286,13 +7241,13 @@
         <v>16506</v>
       </c>
       <c r="C107" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D107" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="E107" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -7307,7 +7262,7 @@
         <v>40</v>
       </c>
       <c r="M107" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N107">
         <v>550</v>
@@ -7327,13 +7282,13 @@
         <v>16506</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D108" t="s">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="E108" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -7348,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="M108" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N108">
         <v>550</v>
@@ -7368,16 +7323,16 @@
         <v>16506</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>309</v>
       </c>
       <c r="E109" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
@@ -7389,7 +7344,7 @@
         <v>40</v>
       </c>
       <c r="M109" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N109">
         <v>550</v>
@@ -7409,13 +7364,13 @@
         <v>16506</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>183</v>
       </c>
       <c r="E110" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -7430,7 +7385,7 @@
         <v>40</v>
       </c>
       <c r="M110" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N110">
         <v>550</v>
@@ -7450,13 +7405,13 @@
         <v>16506</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D111" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="E111" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -7471,7 +7426,7 @@
         <v>40</v>
       </c>
       <c r="M111" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N111">
         <v>550</v>
@@ -7491,13 +7446,13 @@
         <v>16506</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D112" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="E112" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -7512,7 +7467,7 @@
         <v>40</v>
       </c>
       <c r="M112" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N112">
         <v>550</v>
@@ -7532,13 +7487,13 @@
         <v>16506</v>
       </c>
       <c r="C113" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D113" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E113" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -7553,7 +7508,7 @@
         <v>40</v>
       </c>
       <c r="M113" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N113">
         <v>550</v>
@@ -7573,13 +7528,13 @@
         <v>16506</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="E114" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -7594,7 +7549,7 @@
         <v>40</v>
       </c>
       <c r="M114" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N114">
         <v>550</v>
@@ -7614,13 +7569,13 @@
         <v>16506</v>
       </c>
       <c r="C115" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="D115" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="E115" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -7635,7 +7590,7 @@
         <v>40</v>
       </c>
       <c r="M115" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N115">
         <v>550</v>
@@ -7649,23 +7604,32 @@
     </row>
     <row r="116" spans="1:16">
       <c r="A116">
-        <v>16506</v>
+        <v>16508</v>
       </c>
       <c r="B116">
-        <v>16506</v>
+        <v>16508</v>
       </c>
       <c r="C116" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D116" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="E116" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F116">
         <v>1</v>
       </c>
+      <c r="G116" t="s">
+        <v>331</v>
+      </c>
+      <c r="H116">
+        <v>3555409415</v>
+      </c>
+      <c r="I116" t="s">
+        <v>331</v>
+      </c>
       <c r="J116">
         <v>0</v>
       </c>
@@ -7673,10 +7637,10 @@
         <v>1001</v>
       </c>
       <c r="L116">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M116" t="s">
-        <v>18</v>
+        <v>332</v>
       </c>
       <c r="N116">
         <v>550</v>
@@ -7685,7 +7649,7 @@
         <v>1009</v>
       </c>
       <c r="P116">
-        <v>1008</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -7696,25 +7660,25 @@
         <v>16508</v>
       </c>
       <c r="C117" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="D117" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E117" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="F117">
         <v>1</v>
       </c>
       <c r="G117" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H117">
-        <v>3555409415</v>
+        <v>3555157426</v>
       </c>
       <c r="I117" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -7726,7 +7690,7 @@
         <v>37</v>
       </c>
       <c r="M117" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N117">
         <v>550</v>
@@ -7746,25 +7710,25 @@
         <v>16508</v>
       </c>
       <c r="C118" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D118" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E118" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F118">
         <v>1</v>
       </c>
       <c r="G118" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H118">
-        <v>3555157426</v>
+        <v>3555249096</v>
       </c>
       <c r="I118" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -7776,7 +7740,7 @@
         <v>37</v>
       </c>
       <c r="M118" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N118">
         <v>550</v>
@@ -7796,25 +7760,25 @@
         <v>16508</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D119" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E119" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F119">
         <v>1</v>
       </c>
       <c r="G119" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H119">
-        <v>3555249096</v>
+        <v>3555122548</v>
       </c>
       <c r="I119" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7826,7 +7790,7 @@
         <v>37</v>
       </c>
       <c r="M119" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N119">
         <v>550</v>
@@ -7846,25 +7810,25 @@
         <v>16508</v>
       </c>
       <c r="C120" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="D120" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="E120" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F120">
         <v>1</v>
       </c>
       <c r="G120" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H120">
-        <v>3555122548</v>
+        <v>3468519036</v>
       </c>
       <c r="I120" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7876,7 +7840,7 @@
         <v>37</v>
       </c>
       <c r="M120" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N120">
         <v>550</v>
@@ -7896,25 +7860,25 @@
         <v>16508</v>
       </c>
       <c r="C121" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D121" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="E121" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F121">
         <v>1</v>
       </c>
       <c r="G121" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H121">
-        <v>3468519036</v>
+        <v>3418883913</v>
       </c>
       <c r="I121" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J121">
         <v>0</v>
@@ -7926,7 +7890,7 @@
         <v>37</v>
       </c>
       <c r="M121" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N121">
         <v>550</v>
@@ -7946,25 +7910,25 @@
         <v>16508</v>
       </c>
       <c r="C122" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="E122" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F122">
         <v>1</v>
       </c>
       <c r="G122" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H122">
-        <v>3418883913</v>
+        <v>3479626850</v>
       </c>
       <c r="I122" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J122">
         <v>0</v>
@@ -7976,7 +7940,7 @@
         <v>37</v>
       </c>
       <c r="M122" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N122">
         <v>550</v>
@@ -7996,25 +7960,25 @@
         <v>16508</v>
       </c>
       <c r="C123" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="D123" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="E123" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="F123">
         <v>1</v>
       </c>
       <c r="G123" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H123">
-        <v>3479626850</v>
+        <v>3485237853</v>
       </c>
       <c r="I123" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -8026,7 +7990,7 @@
         <v>37</v>
       </c>
       <c r="M123" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N123">
         <v>550</v>
@@ -8046,25 +8010,25 @@
         <v>16508</v>
       </c>
       <c r="C124" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="D124" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="E124" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F124">
         <v>1</v>
       </c>
       <c r="G124" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H124">
-        <v>3485237853</v>
+        <v>3463029940</v>
       </c>
       <c r="I124" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J124">
         <v>0</v>
@@ -8076,7 +8040,7 @@
         <v>37</v>
       </c>
       <c r="M124" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N124">
         <v>550</v>
@@ -8096,25 +8060,25 @@
         <v>16508</v>
       </c>
       <c r="C125" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="D125" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="E125" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F125">
         <v>1</v>
       </c>
       <c r="G125" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H125">
-        <v>3463029940</v>
+        <v>3554400457</v>
       </c>
       <c r="I125" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -8126,7 +8090,7 @@
         <v>37</v>
       </c>
       <c r="M125" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N125">
         <v>550</v>
@@ -8146,25 +8110,25 @@
         <v>16508</v>
       </c>
       <c r="C126" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="E126" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F126">
         <v>1</v>
       </c>
       <c r="G126" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H126">
-        <v>3554400457</v>
+        <v>3555299019</v>
       </c>
       <c r="I126" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J126">
         <v>0</v>
@@ -8176,7 +8140,7 @@
         <v>37</v>
       </c>
       <c r="M126" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N126">
         <v>550</v>
@@ -8196,25 +8160,25 @@
         <v>16508</v>
       </c>
       <c r="C127" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D127" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="E127" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="F127">
         <v>1</v>
       </c>
       <c r="G127" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H127">
-        <v>3555299019</v>
+        <v>3555105655</v>
       </c>
       <c r="I127" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -8226,7 +8190,7 @@
         <v>37</v>
       </c>
       <c r="M127" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N127">
         <v>550</v>
@@ -8246,25 +8210,25 @@
         <v>16508</v>
       </c>
       <c r="C128" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="E128" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F128">
         <v>1</v>
       </c>
       <c r="G128" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H128">
-        <v>3555105655</v>
+        <v>3448840180</v>
       </c>
       <c r="I128" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J128">
         <v>0</v>
@@ -8276,7 +8240,7 @@
         <v>37</v>
       </c>
       <c r="M128" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N128">
         <v>550</v>
@@ -8296,25 +8260,25 @@
         <v>16508</v>
       </c>
       <c r="C129" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D129" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="E129" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="F129">
         <v>1</v>
       </c>
       <c r="G129" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H129">
-        <v>3448840180</v>
+        <v>3555642417</v>
       </c>
       <c r="I129" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -8326,7 +8290,7 @@
         <v>37</v>
       </c>
       <c r="M129" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N129">
         <v>550</v>
@@ -8346,25 +8310,25 @@
         <v>16508</v>
       </c>
       <c r="C130" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D130" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="E130" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="F130">
         <v>1</v>
       </c>
       <c r="G130" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H130">
-        <v>3555642417</v>
+        <v>3468482157</v>
       </c>
       <c r="I130" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J130">
         <v>0</v>
@@ -8376,7 +8340,7 @@
         <v>37</v>
       </c>
       <c r="M130" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N130">
         <v>550</v>
@@ -8396,25 +8360,25 @@
         <v>16508</v>
       </c>
       <c r="C131" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="D131" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="E131" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="F131">
         <v>1</v>
       </c>
       <c r="G131" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H131">
-        <v>3468482157</v>
+        <v>3555446874</v>
       </c>
       <c r="I131" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J131">
         <v>0</v>
@@ -8426,7 +8390,7 @@
         <v>37</v>
       </c>
       <c r="M131" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N131">
         <v>550</v>
@@ -8446,25 +8410,25 @@
         <v>16508</v>
       </c>
       <c r="C132" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D132" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E132" t="s">
-        <v>242</v>
+        <v>379</v>
       </c>
       <c r="F132">
         <v>1</v>
       </c>
       <c r="G132" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H132">
-        <v>3555446874</v>
+        <v>3555636646</v>
       </c>
       <c r="I132" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -8476,7 +8440,7 @@
         <v>37</v>
       </c>
       <c r="M132" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N132">
         <v>550</v>
@@ -8496,25 +8460,25 @@
         <v>16508</v>
       </c>
       <c r="C133" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D133" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="E133" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="F133">
         <v>1</v>
       </c>
       <c r="G133" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H133">
-        <v>3555636646</v>
+        <v>3129876301</v>
       </c>
       <c r="I133" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J133">
         <v>0</v>
@@ -8526,7 +8490,7 @@
         <v>37</v>
       </c>
       <c r="M133" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N133">
         <v>550</v>
@@ -8546,25 +8510,25 @@
         <v>16508</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="D134" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="E134" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F134">
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H134">
-        <v>3129876301</v>
+        <v>355147083</v>
       </c>
       <c r="I134" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -8576,7 +8540,7 @@
         <v>37</v>
       </c>
       <c r="M134" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N134">
         <v>550</v>
@@ -8596,25 +8560,25 @@
         <v>16508</v>
       </c>
       <c r="C135" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D135" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="E135" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="F135">
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H135">
-        <v>355147083</v>
+        <v>3123499884</v>
       </c>
       <c r="I135" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J135">
         <v>0</v>
@@ -8626,7 +8590,7 @@
         <v>37</v>
       </c>
       <c r="M135" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N135">
         <v>550</v>
@@ -8646,25 +8610,25 @@
         <v>16508</v>
       </c>
       <c r="C136" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D136" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="E136" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="F136">
         <v>1</v>
       </c>
       <c r="G136" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H136">
-        <v>3123499884</v>
+        <v>3468482157</v>
       </c>
       <c r="I136" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J136">
         <v>0</v>
@@ -8676,7 +8640,7 @@
         <v>37</v>
       </c>
       <c r="M136" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N136">
         <v>550</v>
@@ -8696,40 +8660,40 @@
         <v>16508</v>
       </c>
       <c r="C137" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="D137" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="E137" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="F137">
         <v>1</v>
       </c>
       <c r="G137" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H137">
-        <v>3468482157</v>
+        <v>3555401430</v>
       </c>
       <c r="I137" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137">
         <v>1001</v>
       </c>
       <c r="L137">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M137" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N137">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="O137">
         <v>1009</v>
@@ -8746,25 +8710,25 @@
         <v>16508</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="D138" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="E138" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="F138">
         <v>1</v>
       </c>
       <c r="G138" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="H138">
-        <v>3555401430</v>
+        <v>3155982280</v>
       </c>
       <c r="I138" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="J138">
         <v>1</v>
@@ -8773,10 +8737,10 @@
         <v>1001</v>
       </c>
       <c r="L138">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M138" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="N138">
         <v>1000</v>
@@ -8790,52 +8754,46 @@
     </row>
     <row r="139" spans="1:16">
       <c r="A139">
-        <v>16508</v>
+        <v>16509</v>
       </c>
       <c r="B139">
-        <v>16508</v>
+        <v>16509</v>
       </c>
       <c r="C139" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="D139" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="E139" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="F139">
         <v>1</v>
       </c>
-      <c r="G139" t="s">
-        <v>345</v>
-      </c>
-      <c r="H139">
-        <v>3155982280</v>
-      </c>
-      <c r="I139" t="s">
-        <v>345</v>
+      <c r="H139" t="s">
+        <v>399</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>1001</v>
       </c>
       <c r="L139">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M139" t="s">
-        <v>346</v>
+        <v>4</v>
       </c>
       <c r="N139">
-        <v>1000</v>
+        <v>47900</v>
       </c>
       <c r="O139">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P139">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -8846,34 +8804,22 @@
         <v>16509</v>
       </c>
       <c r="C140" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D140" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="E140" t="s">
-        <v>332</v>
+        <v>402</v>
       </c>
       <c r="F140">
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="J140">
         <v>0</v>
-      </c>
-      <c r="K140">
-        <v>1001</v>
-      </c>
-      <c r="L140">
-        <v>36</v>
-      </c>
-      <c r="M140" t="s">
-        <v>18</v>
-      </c>
-      <c r="N140">
-        <v>47900</v>
       </c>
       <c r="O140">
         <v>1008</v>
@@ -8890,19 +8836,19 @@
         <v>16509</v>
       </c>
       <c r="C141" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D141" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="E141" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F141">
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -8922,19 +8868,19 @@
         <v>16509</v>
       </c>
       <c r="C142" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="D142" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="E142" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="F142">
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="J142">
         <v>0</v>
@@ -8954,19 +8900,19 @@
         <v>16509</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="D143" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="E143" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="F143">
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -8986,19 +8932,19 @@
         <v>16509</v>
       </c>
       <c r="C144" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="D144" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="E144" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="F144">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -9018,19 +8964,19 @@
         <v>16509</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D145" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="E145" t="s">
-        <v>432</v>
+        <v>315</v>
       </c>
       <c r="F145">
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -9050,19 +8996,19 @@
         <v>16509</v>
       </c>
       <c r="C146" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D146" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="E146" t="s">
-        <v>329</v>
+        <v>425</v>
       </c>
       <c r="F146">
         <v>1</v>
       </c>
-      <c r="H146" t="s">
-        <v>436</v>
+      <c r="H146">
+        <v>3418884080</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -9082,19 +9028,19 @@
         <v>16509</v>
       </c>
       <c r="C147" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D147" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="E147" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F147">
         <v>1</v>
       </c>
-      <c r="H147">
-        <v>3418884080</v>
+      <c r="H147" t="s">
+        <v>429</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -9114,19 +9060,19 @@
         <v>16509</v>
       </c>
       <c r="C148" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="D148" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="E148" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="F148">
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -9146,19 +9092,19 @@
         <v>16509</v>
       </c>
       <c r="C149" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D149" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E149" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F149">
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -9178,19 +9124,19 @@
         <v>16509</v>
       </c>
       <c r="C150" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="D150" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="E150" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F150">
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -9210,19 +9156,19 @@
         <v>16509</v>
       </c>
       <c r="C151" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="D151" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="E151" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F151">
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="J151">
         <v>0</v>
@@ -9242,19 +9188,19 @@
         <v>16509</v>
       </c>
       <c r="C152" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D152" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E152" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="F152">
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -9274,19 +9220,19 @@
         <v>16509</v>
       </c>
       <c r="C153" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D153" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E153" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="F153">
         <v>1</v>
       </c>
-      <c r="H153" t="s">
-        <v>462</v>
+      <c r="H153">
+        <v>3551328972</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -9306,19 +9252,19 @@
         <v>16509</v>
       </c>
       <c r="C154" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D154" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="E154" t="s">
-        <v>465</v>
+        <v>28</v>
       </c>
       <c r="F154">
         <v>1</v>
       </c>
-      <c r="H154">
-        <v>3551328972</v>
+      <c r="H154" t="s">
+        <v>454</v>
       </c>
       <c r="J154">
         <v>0</v>
@@ -9338,19 +9284,19 @@
         <v>16509</v>
       </c>
       <c r="C155" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="D155" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>457</v>
       </c>
       <c r="F155">
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="J155">
         <v>0</v>
@@ -9370,19 +9316,19 @@
         <v>16509</v>
       </c>
       <c r="C156" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D156" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="E156" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="F156">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="J156">
         <v>0</v>
@@ -9402,19 +9348,19 @@
         <v>16509</v>
       </c>
       <c r="C157" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="D157" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="E157" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="F157">
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="J157">
         <v>0</v>
@@ -9434,19 +9380,19 @@
         <v>16509</v>
       </c>
       <c r="C158" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D158" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="E158" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="F158">
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -9466,19 +9412,19 @@
         <v>16509</v>
       </c>
       <c r="C159" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="D159" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="E159" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="F159">
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="J159">
         <v>0</v>
@@ -9492,25 +9438,22 @@
     </row>
     <row r="160" spans="1:16">
       <c r="A160">
-        <v>16509</v>
+        <v>16510</v>
       </c>
       <c r="B160">
-        <v>16509</v>
+        <v>16510</v>
       </c>
       <c r="C160" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="D160" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="E160" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="H160" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -9530,13 +9473,13 @@
         <v>16510</v>
       </c>
       <c r="C161" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="D161" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="E161" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -9559,13 +9502,13 @@
         <v>16510</v>
       </c>
       <c r="C162" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D162" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="E162" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -9588,13 +9531,13 @@
         <v>16510</v>
       </c>
       <c r="C163" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D163" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="E163" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="F163">
         <v>0</v>
@@ -9617,13 +9560,13 @@
         <v>16510</v>
       </c>
       <c r="C164" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D164" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="E164" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -9646,13 +9589,13 @@
         <v>16510</v>
       </c>
       <c r="C165" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="D165" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="E165" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -9675,16 +9618,16 @@
         <v>16510</v>
       </c>
       <c r="C166" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D166" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="E166" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166">
         <v>0</v>
@@ -9704,13 +9647,13 @@
         <v>16510</v>
       </c>
       <c r="C167" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D167" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E167" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -9733,13 +9676,13 @@
         <v>16510</v>
       </c>
       <c r="C168" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="D168" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="E168" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -9762,13 +9705,13 @@
         <v>16510</v>
       </c>
       <c r="C169" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="D169" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="E169" t="s">
-        <v>515</v>
+        <v>483</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -9791,13 +9734,13 @@
         <v>16510</v>
       </c>
       <c r="C170" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D170" t="s">
-        <v>517</v>
+        <v>116</v>
       </c>
       <c r="E170" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -9820,13 +9763,13 @@
         <v>16510</v>
       </c>
       <c r="C171" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D171" t="s">
-        <v>130</v>
+        <v>507</v>
       </c>
       <c r="E171" t="s">
-        <v>519</v>
+        <v>297</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -9849,13 +9792,13 @@
         <v>16510</v>
       </c>
       <c r="C172" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D172" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E172" t="s">
-        <v>311</v>
+        <v>509</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -9872,19 +9815,19 @@
     </row>
     <row r="173" spans="1:16">
       <c r="A173">
-        <v>16510</v>
+        <v>16511</v>
       </c>
       <c r="B173">
-        <v>16510</v>
+        <v>16717</v>
       </c>
       <c r="C173" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D173" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="E173" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -9907,13 +9850,13 @@
         <v>16717</v>
       </c>
       <c r="C174" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D174" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="E174" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -9936,13 +9879,13 @@
         <v>16717</v>
       </c>
       <c r="C175" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D175" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="E175" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -9965,13 +9908,13 @@
         <v>16717</v>
       </c>
       <c r="C176" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="D176" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="E176" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -9988,25 +9931,37 @@
     </row>
     <row r="177" spans="1:16">
       <c r="A177">
-        <v>16511</v>
+        <v>16512</v>
       </c>
       <c r="B177">
-        <v>16717</v>
+        <v>16512</v>
       </c>
       <c r="C177" t="s">
-        <v>533</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="E177" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177">
         <v>0</v>
+      </c>
+      <c r="K177">
+        <v>1001</v>
+      </c>
+      <c r="L177">
+        <v>39</v>
+      </c>
+      <c r="M177" t="s">
+        <v>4</v>
+      </c>
+      <c r="N177">
+        <v>550</v>
       </c>
       <c r="O177">
         <v>1008</v>
@@ -10023,16 +9978,16 @@
         <v>16512</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="D178" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="E178" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="F178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178">
         <v>0</v>
@@ -10044,7 +9999,7 @@
         <v>39</v>
       </c>
       <c r="M178" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N178">
         <v>550</v>
@@ -10064,13 +10019,13 @@
         <v>16512</v>
       </c>
       <c r="C179" t="s">
-        <v>224</v>
+        <v>526</v>
       </c>
       <c r="D179" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="E179" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -10085,7 +10040,7 @@
         <v>39</v>
       </c>
       <c r="M179" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N179">
         <v>550</v>
@@ -10105,16 +10060,16 @@
         <v>16512</v>
       </c>
       <c r="C180" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D180" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E180" t="s">
-        <v>542</v>
+        <v>294</v>
       </c>
       <c r="F180">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J180">
         <v>0</v>
@@ -10126,7 +10081,7 @@
         <v>39</v>
       </c>
       <c r="M180" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N180">
         <v>550</v>
@@ -10146,13 +10101,13 @@
         <v>16512</v>
       </c>
       <c r="C181" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="D181" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="E181" t="s">
-        <v>308</v>
+        <v>533</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -10167,7 +10122,7 @@
         <v>39</v>
       </c>
       <c r="M181" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N181">
         <v>550</v>
@@ -10181,22 +10136,25 @@
     </row>
     <row r="182" spans="1:16">
       <c r="A182">
-        <v>16512</v>
+        <v>16513</v>
       </c>
       <c r="B182">
-        <v>16512</v>
+        <v>16513</v>
       </c>
       <c r="C182" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D182" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="E182" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>3435603585</v>
       </c>
       <c r="J182">
         <v>0</v>
@@ -10205,19 +10163,19 @@
         <v>1001</v>
       </c>
       <c r="L182">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M182" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N182">
-        <v>550</v>
+        <v>21150</v>
       </c>
       <c r="O182">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P182">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="183" spans="1:16">
@@ -10228,34 +10186,22 @@
         <v>16513</v>
       </c>
       <c r="C183" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D183" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="E183" t="s">
-        <v>550</v>
+        <v>234</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>3435603585</v>
+        <v>3135235908</v>
       </c>
       <c r="J183">
         <v>0</v>
-      </c>
-      <c r="K183">
-        <v>1001</v>
-      </c>
-      <c r="L183">
-        <v>50</v>
-      </c>
-      <c r="M183" t="s">
-        <v>18</v>
-      </c>
-      <c r="N183">
-        <v>21150</v>
       </c>
       <c r="O183">
         <v>1009</v>
@@ -10272,19 +10218,19 @@
         <v>16513</v>
       </c>
       <c r="C184" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D184" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="E184" t="s">
-        <v>248</v>
+        <v>541</v>
       </c>
       <c r="F184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>3135235908</v>
+        <v>3425040270</v>
       </c>
       <c r="J184">
         <v>0</v>
@@ -10304,19 +10250,19 @@
         <v>16513</v>
       </c>
       <c r="C185" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D185" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="E185" t="s">
-        <v>555</v>
+        <v>212</v>
       </c>
       <c r="F185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>3425040270</v>
+        <v>3554279111</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -10336,19 +10282,19 @@
         <v>16513</v>
       </c>
       <c r="C186" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D186" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="E186" t="s">
-        <v>226</v>
+        <v>546</v>
       </c>
       <c r="F186">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>3554279111</v>
+        <v>3442629498</v>
       </c>
       <c r="J186">
         <v>0</v>
@@ -10368,19 +10314,19 @@
         <v>16513</v>
       </c>
       <c r="C187" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D187" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="E187" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="F187">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>3442629498</v>
+        <v>3555313962</v>
       </c>
       <c r="J187">
         <v>0</v>
@@ -10400,19 +10346,19 @@
         <v>16513</v>
       </c>
       <c r="C188" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D188" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="E188" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>3555313962</v>
+        <v>3554235936</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -10432,19 +10378,19 @@
         <v>16513</v>
       </c>
       <c r="C189" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D189" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="E189" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="F189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>3554235936</v>
+        <v>3555206206</v>
       </c>
       <c r="J189">
         <v>0</v>
@@ -10464,19 +10410,19 @@
         <v>16513</v>
       </c>
       <c r="C190" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D190" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="E190" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>3555206206</v>
+        <v>3555119692</v>
       </c>
       <c r="J190">
         <v>0</v>
@@ -10496,19 +10442,19 @@
         <v>16513</v>
       </c>
       <c r="C191" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D191" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="E191" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H191">
-        <v>3555119692</v>
+        <v>3554235936</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -10528,19 +10474,19 @@
         <v>16513</v>
       </c>
       <c r="C192" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D192" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="E192" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>3554235936</v>
+        <v>3449495022</v>
       </c>
       <c r="J192">
         <v>0</v>
@@ -10560,19 +10506,19 @@
         <v>16513</v>
       </c>
       <c r="C193" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D193" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="E193" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>3449495022</v>
+        <v>3554329997</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -10592,19 +10538,19 @@
         <v>16513</v>
       </c>
       <c r="C194" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D194" t="s">
-        <v>580</v>
+        <v>219</v>
       </c>
       <c r="E194" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F194">
         <v>0</v>
       </c>
       <c r="H194">
-        <v>3554329997</v>
+        <v>3554359756</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -10624,19 +10570,19 @@
         <v>16513</v>
       </c>
       <c r="C195" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="D195" t="s">
-        <v>233</v>
+        <v>571</v>
       </c>
       <c r="E195" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
       <c r="H195">
-        <v>3554359756</v>
+        <v>3555340374</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -10656,19 +10602,16 @@
         <v>16513</v>
       </c>
       <c r="C196" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D196" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="E196" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="F196">
-        <v>0</v>
-      </c>
-      <c r="H196">
-        <v>3555340374</v>
+        <v>1</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -10688,16 +10631,19 @@
         <v>16513</v>
       </c>
       <c r="C197" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D197" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="E197" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="F197">
         <v>1</v>
+      </c>
+      <c r="H197">
+        <v>3422977991</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -10711,25 +10657,22 @@
     </row>
     <row r="198" spans="1:16">
       <c r="A198">
-        <v>16513</v>
+        <v>16514</v>
       </c>
       <c r="B198">
-        <v>16513</v>
+        <v>16514</v>
       </c>
       <c r="C198" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D198" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="E198" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="F198">
-        <v>1</v>
-      </c>
-      <c r="H198">
-        <v>3422977991</v>
+        <v>0</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -10749,13 +10692,13 @@
         <v>16514</v>
       </c>
       <c r="C199" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D199" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="E199" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -10772,25 +10715,46 @@
     </row>
     <row r="200" spans="1:16">
       <c r="A200">
-        <v>16514</v>
+        <v>16515</v>
       </c>
       <c r="B200">
-        <v>16514</v>
+        <v>16515</v>
       </c>
       <c r="C200" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D200" t="s">
-        <v>597</v>
+        <v>233</v>
       </c>
       <c r="E200" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="F200">
         <v>0</v>
       </c>
+      <c r="G200" t="s">
+        <v>587</v>
+      </c>
+      <c r="H200">
+        <v>3554182212</v>
+      </c>
+      <c r="I200" t="s">
+        <v>587</v>
+      </c>
       <c r="J200">
         <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1001</v>
+      </c>
+      <c r="L200">
+        <v>8737</v>
+      </c>
+      <c r="M200" t="s">
+        <v>588</v>
+      </c>
+      <c r="N200">
+        <v>550</v>
       </c>
       <c r="O200">
         <v>1009</v>
@@ -10807,25 +10771,22 @@
         <v>16515</v>
       </c>
       <c r="C201" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D201" t="s">
-        <v>247</v>
+        <v>590</v>
       </c>
       <c r="E201" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="F201">
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>601</v>
-      </c>
-      <c r="H201">
-        <v>3554182212</v>
+        <v>587</v>
       </c>
       <c r="I201" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -10837,7 +10798,7 @@
         <v>8737</v>
       </c>
       <c r="M201" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N201">
         <v>550</v>
@@ -10857,22 +10818,22 @@
         <v>16515</v>
       </c>
       <c r="C202" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D202" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="E202" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I202" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -10884,7 +10845,7 @@
         <v>8737</v>
       </c>
       <c r="M202" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N202">
         <v>550</v>
@@ -10904,22 +10865,22 @@
         <v>16515</v>
       </c>
       <c r="C203" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D203" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="E203" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G203" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I203" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J203">
         <v>0</v>
@@ -10931,7 +10892,7 @@
         <v>8737</v>
       </c>
       <c r="M203" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N203">
         <v>550</v>
@@ -10951,22 +10912,22 @@
         <v>16515</v>
       </c>
       <c r="C204" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D204" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="E204" t="s">
-        <v>611</v>
+        <v>234</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I204" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -10978,7 +10939,7 @@
         <v>8737</v>
       </c>
       <c r="M204" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N204">
         <v>550</v>
@@ -10998,22 +10959,22 @@
         <v>16515</v>
       </c>
       <c r="C205" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D205" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="E205" t="s">
-        <v>248</v>
+        <v>148</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I205" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -11025,7 +10986,7 @@
         <v>8737</v>
       </c>
       <c r="M205" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N205">
         <v>550</v>
@@ -11045,22 +11006,22 @@
         <v>16515</v>
       </c>
       <c r="C206" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="D206" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
       <c r="E206" t="s">
-        <v>162</v>
+        <v>604</v>
       </c>
       <c r="F206">
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I206" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -11072,7 +11033,7 @@
         <v>8737</v>
       </c>
       <c r="M206" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N206">
         <v>550</v>
@@ -11092,22 +11053,22 @@
         <v>16515</v>
       </c>
       <c r="C207" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D207" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="E207" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I207" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -11119,7 +11080,7 @@
         <v>8737</v>
       </c>
       <c r="M207" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N207">
         <v>550</v>
@@ -11133,28 +11094,31 @@
     </row>
     <row r="208" spans="1:16">
       <c r="A208">
-        <v>16515</v>
+        <v>16516</v>
       </c>
       <c r="B208">
-        <v>16515</v>
+        <v>16516</v>
       </c>
       <c r="C208" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="D208" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="E208" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="F208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G208" t="s">
-        <v>601</v>
+        <v>587</v>
+      </c>
+      <c r="H208">
+        <v>355320360</v>
       </c>
       <c r="I208" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J208">
         <v>0</v>
@@ -11166,7 +11130,7 @@
         <v>8737</v>
       </c>
       <c r="M208" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N208">
         <v>550</v>
@@ -11186,25 +11150,22 @@
         <v>16516</v>
       </c>
       <c r="C209" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D209" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="E209" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>601</v>
-      </c>
-      <c r="H209">
-        <v>355320360</v>
+        <v>587</v>
       </c>
       <c r="I209" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J209">
         <v>0</v>
@@ -11216,7 +11177,7 @@
         <v>8737</v>
       </c>
       <c r="M209" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N209">
         <v>550</v>
@@ -11236,22 +11197,22 @@
         <v>16516</v>
       </c>
       <c r="C210" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D210" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="E210" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I210" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J210">
         <v>0</v>
@@ -11263,7 +11224,7 @@
         <v>8737</v>
       </c>
       <c r="M210" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N210">
         <v>550</v>
@@ -11283,22 +11244,22 @@
         <v>16516</v>
       </c>
       <c r="C211" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="D211" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="E211" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I211" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J211">
         <v>0</v>
@@ -11310,7 +11271,7 @@
         <v>8737</v>
       </c>
       <c r="M211" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N211">
         <v>550</v>
@@ -11330,22 +11291,22 @@
         <v>16516</v>
       </c>
       <c r="C212" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="D212" t="s">
-        <v>631</v>
+        <v>201</v>
       </c>
       <c r="E212" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="F212">
         <v>1</v>
       </c>
       <c r="G212" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I212" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J212">
         <v>0</v>
@@ -11357,7 +11318,7 @@
         <v>8737</v>
       </c>
       <c r="M212" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N212">
         <v>550</v>
@@ -11377,22 +11338,22 @@
         <v>16516</v>
       </c>
       <c r="C213" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D213" t="s">
-        <v>215</v>
+        <v>621</v>
       </c>
       <c r="E213" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F213">
         <v>1</v>
       </c>
       <c r="G213" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I213" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -11404,7 +11365,7 @@
         <v>8737</v>
       </c>
       <c r="M213" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N213">
         <v>550</v>
@@ -11424,22 +11385,22 @@
         <v>16516</v>
       </c>
       <c r="C214" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="D214" t="s">
-        <v>635</v>
+        <v>277</v>
       </c>
       <c r="E214" t="s">
-        <v>636</v>
+        <v>89</v>
       </c>
       <c r="F214">
         <v>1</v>
       </c>
       <c r="G214" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I214" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -11451,7 +11412,7 @@
         <v>8737</v>
       </c>
       <c r="M214" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N214">
         <v>550</v>
@@ -11471,22 +11432,22 @@
         <v>16516</v>
       </c>
       <c r="C215" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D215" t="s">
-        <v>291</v>
+        <v>625</v>
       </c>
       <c r="E215" t="s">
-        <v>103</v>
+        <v>626</v>
       </c>
       <c r="F215">
         <v>1</v>
       </c>
       <c r="G215" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I215" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -11498,7 +11459,7 @@
         <v>8737</v>
       </c>
       <c r="M215" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N215">
         <v>550</v>
@@ -11512,28 +11473,31 @@
     </row>
     <row r="216" spans="1:16">
       <c r="A216">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="B216">
-        <v>16516</v>
+        <v>16517</v>
       </c>
       <c r="C216" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="D216" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="E216" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>601</v>
+        <v>630</v>
+      </c>
+      <c r="H216">
+        <v>3555654262</v>
       </c>
       <c r="I216" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -11542,19 +11506,19 @@
         <v>1001</v>
       </c>
       <c r="L216">
-        <v>8737</v>
+        <v>49</v>
       </c>
       <c r="M216" t="s">
-        <v>602</v>
+        <v>4</v>
       </c>
       <c r="N216">
         <v>550</v>
       </c>
       <c r="O216">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="P216">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="217" spans="1:16">
@@ -11565,25 +11529,25 @@
         <v>16517</v>
       </c>
       <c r="C217" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D217" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E217" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G217" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H217">
-        <v>3555654262</v>
+        <v>3555289389</v>
       </c>
       <c r="I217" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J217">
         <v>0</v>
@@ -11595,7 +11559,7 @@
         <v>49</v>
       </c>
       <c r="M217" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N217">
         <v>550</v>
@@ -11615,25 +11579,25 @@
         <v>16517</v>
       </c>
       <c r="C218" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="D218" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="E218" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="F218">
         <v>1</v>
       </c>
       <c r="G218" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H218">
-        <v>3555289389</v>
+        <v>3555231037</v>
       </c>
       <c r="I218" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -11645,7 +11609,7 @@
         <v>49</v>
       </c>
       <c r="M218" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N218">
         <v>550</v>
@@ -11659,31 +11623,31 @@
     </row>
     <row r="219" spans="1:16">
       <c r="A219">
-        <v>16517</v>
+        <v>16518</v>
       </c>
       <c r="B219">
-        <v>16517</v>
+        <v>16704</v>
       </c>
       <c r="C219" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
       <c r="D219" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="E219" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="H219">
-        <v>3555231037</v>
+        <v>3555551309</v>
       </c>
       <c r="I219" t="s">
-        <v>644</v>
+        <v>587</v>
       </c>
       <c r="J219">
         <v>0</v>
@@ -11692,19 +11656,19 @@
         <v>1001</v>
       </c>
       <c r="L219">
-        <v>49</v>
+        <v>8737</v>
       </c>
       <c r="M219" t="s">
-        <v>18</v>
+        <v>588</v>
       </c>
       <c r="N219">
         <v>550</v>
       </c>
       <c r="O219">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="P219">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="220" spans="1:16">
@@ -11715,25 +11679,22 @@
         <v>16704</v>
       </c>
       <c r="C220" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D220" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="E220" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="F220">
         <v>0</v>
       </c>
       <c r="G220" t="s">
-        <v>601</v>
-      </c>
-      <c r="H220">
-        <v>3555551309</v>
+        <v>587</v>
       </c>
       <c r="I220" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J220">
         <v>0</v>
@@ -11745,7 +11706,7 @@
         <v>8737</v>
       </c>
       <c r="M220" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N220">
         <v>550</v>
@@ -11765,22 +11726,22 @@
         <v>16704</v>
       </c>
       <c r="C221" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D221" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E221" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I221" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -11792,7 +11753,7 @@
         <v>8737</v>
       </c>
       <c r="M221" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N221">
         <v>550</v>
@@ -11812,22 +11773,22 @@
         <v>16704</v>
       </c>
       <c r="C222" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D222" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="E222" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="F222">
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I222" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -11839,7 +11800,7 @@
         <v>8737</v>
       </c>
       <c r="M222" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N222">
         <v>550</v>
@@ -11859,22 +11820,22 @@
         <v>16704</v>
       </c>
       <c r="C223" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="D223" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
       <c r="E223" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="F223">
         <v>0</v>
       </c>
       <c r="G223" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I223" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -11886,7 +11847,7 @@
         <v>8737</v>
       </c>
       <c r="M223" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N223">
         <v>550</v>
@@ -11906,22 +11867,22 @@
         <v>16704</v>
       </c>
       <c r="C224" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="D224" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="E224" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F224">
         <v>0</v>
       </c>
       <c r="G224" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I224" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J224">
         <v>0</v>
@@ -11933,7 +11894,7 @@
         <v>8737</v>
       </c>
       <c r="M224" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N224">
         <v>550</v>
@@ -11953,22 +11914,22 @@
         <v>16704</v>
       </c>
       <c r="C225" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="D225" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="E225" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I225" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -11980,7 +11941,7 @@
         <v>8737</v>
       </c>
       <c r="M225" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N225">
         <v>550</v>
@@ -11997,25 +11958,28 @@
         <v>16518</v>
       </c>
       <c r="B226">
-        <v>16704</v>
+        <v>16706</v>
       </c>
       <c r="C226" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="D226" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E226" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="F226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G226" t="s">
-        <v>601</v>
+        <v>587</v>
+      </c>
+      <c r="H226">
+        <v>355642553</v>
       </c>
       <c r="I226" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J226">
         <v>0</v>
@@ -12027,7 +11991,7 @@
         <v>8737</v>
       </c>
       <c r="M226" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N226">
         <v>550</v>
@@ -12047,25 +12011,22 @@
         <v>16706</v>
       </c>
       <c r="C227" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="D227" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="E227" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="F227">
         <v>1</v>
       </c>
       <c r="G227" t="s">
-        <v>601</v>
-      </c>
-      <c r="H227">
-        <v>355642553</v>
+        <v>587</v>
       </c>
       <c r="I227" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -12077,7 +12038,7 @@
         <v>8737</v>
       </c>
       <c r="M227" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N227">
         <v>550</v>
@@ -12097,22 +12058,22 @@
         <v>16706</v>
       </c>
       <c r="C228" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="D228" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E228" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F228">
         <v>1</v>
       </c>
       <c r="G228" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I228" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -12124,7 +12085,7 @@
         <v>8737</v>
       </c>
       <c r="M228" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N228">
         <v>550</v>
@@ -12144,22 +12105,22 @@
         <v>16706</v>
       </c>
       <c r="C229" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="D229" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E229" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F229">
         <v>1</v>
       </c>
       <c r="G229" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I229" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -12171,7 +12132,7 @@
         <v>8737</v>
       </c>
       <c r="M229" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N229">
         <v>550</v>
@@ -12191,22 +12152,22 @@
         <v>16706</v>
       </c>
       <c r="C230" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="D230" t="s">
-        <v>678</v>
+        <v>532</v>
       </c>
       <c r="E230" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F230">
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I230" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J230">
         <v>0</v>
@@ -12218,7 +12179,7 @@
         <v>8737</v>
       </c>
       <c r="M230" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N230">
         <v>550</v>
@@ -12238,22 +12199,22 @@
         <v>16706</v>
       </c>
       <c r="C231" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="D231" t="s">
-        <v>546</v>
+        <v>669</v>
       </c>
       <c r="E231" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I231" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -12265,7 +12226,7 @@
         <v>8737</v>
       </c>
       <c r="M231" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N231">
         <v>550</v>
@@ -12285,22 +12246,22 @@
         <v>16706</v>
       </c>
       <c r="C232" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="D232" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="E232" t="s">
-        <v>684</v>
+        <v>505</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
       <c r="G232" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I232" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -12312,7 +12273,7 @@
         <v>8737</v>
       </c>
       <c r="M232" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N232">
         <v>550</v>
@@ -12332,22 +12293,22 @@
         <v>16706</v>
       </c>
       <c r="C233" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="D233" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
       <c r="E233" t="s">
-        <v>519</v>
+        <v>473</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I233" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J233">
         <v>0</v>
@@ -12359,7 +12320,7 @@
         <v>8737</v>
       </c>
       <c r="M233" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N233">
         <v>550</v>
@@ -12379,25 +12340,25 @@
         <v>16706</v>
       </c>
       <c r="C234" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="D234" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="E234" t="s">
-        <v>487</v>
+        <v>677</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="I234" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="J234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K234">
         <v>1001</v>
@@ -12406,10 +12367,10 @@
         <v>8737</v>
       </c>
       <c r="M234" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="N234">
-        <v>550</v>
+        <v>800</v>
       </c>
       <c r="O234">
         <v>1009</v>
@@ -12423,46 +12384,43 @@
         <v>16518</v>
       </c>
       <c r="B235">
-        <v>16706</v>
+        <v>16518</v>
       </c>
       <c r="C235" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D235" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="E235" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235" t="s">
-        <v>601</v>
-      </c>
-      <c r="I235" t="s">
-        <v>601</v>
+        <v>1</v>
+      </c>
+      <c r="H235">
+        <v>3555432931</v>
       </c>
       <c r="J235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K235">
         <v>1001</v>
       </c>
       <c r="L235">
-        <v>8737</v>
+        <v>41</v>
       </c>
       <c r="M235" t="s">
-        <v>602</v>
+        <v>4</v>
       </c>
       <c r="N235">
-        <v>800</v>
+        <v>550</v>
       </c>
       <c r="O235">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P235">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="236" spans="1:16">
@@ -12473,19 +12431,19 @@
         <v>16518</v>
       </c>
       <c r="C236" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="D236" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="E236" t="s">
-        <v>694</v>
+        <v>406</v>
       </c>
       <c r="F236">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>3555432931</v>
+        <v>3555211184</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -12497,7 +12455,7 @@
         <v>41</v>
       </c>
       <c r="M236" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N236">
         <v>550</v>
@@ -12517,19 +12475,19 @@
         <v>16518</v>
       </c>
       <c r="C237" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="D237" t="s">
-        <v>696</v>
+        <v>684</v>
       </c>
       <c r="E237" t="s">
-        <v>420</v>
+        <v>685</v>
       </c>
       <c r="F237">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>3555211184</v>
+        <v>3450982889</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -12541,7 +12499,7 @@
         <v>41</v>
       </c>
       <c r="M237" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N237">
         <v>550</v>
@@ -12561,19 +12519,19 @@
         <v>16518</v>
       </c>
       <c r="C238" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="D238" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="E238" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="F238">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>3450982889</v>
+        <v>3459472008</v>
       </c>
       <c r="J238">
         <v>0</v>
@@ -12585,7 +12543,7 @@
         <v>41</v>
       </c>
       <c r="M238" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N238">
         <v>550</v>
@@ -12605,19 +12563,19 @@
         <v>16518</v>
       </c>
       <c r="C239" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="D239" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="E239" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="F239">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>3459472008</v>
+        <v>3445080945</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -12629,7 +12587,7 @@
         <v>41</v>
       </c>
       <c r="M239" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N239">
         <v>550</v>
@@ -12649,19 +12607,19 @@
         <v>16518</v>
       </c>
       <c r="C240" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D240" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="E240" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F240">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>3445080945</v>
+        <v>3555692802</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -12673,7 +12631,7 @@
         <v>41</v>
       </c>
       <c r="M240" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N240">
         <v>550</v>
@@ -12693,19 +12651,19 @@
         <v>16518</v>
       </c>
       <c r="C241" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="D241" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="E241" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="F241">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>3555692802</v>
+        <v>3438824391</v>
       </c>
       <c r="J241">
         <v>0</v>
@@ -12717,7 +12675,7 @@
         <v>41</v>
       </c>
       <c r="M241" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N241">
         <v>550</v>
@@ -12737,19 +12695,19 @@
         <v>16518</v>
       </c>
       <c r="C242" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="D242" t="s">
-        <v>710</v>
+        <v>602</v>
       </c>
       <c r="E242" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="F242">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>3438824391</v>
+        <v>3445383107</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -12761,7 +12719,7 @@
         <v>41</v>
       </c>
       <c r="M242" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N242">
         <v>550</v>
@@ -12781,19 +12739,19 @@
         <v>16518</v>
       </c>
       <c r="C243" t="s">
-        <v>712</v>
+        <v>700</v>
       </c>
       <c r="D243" t="s">
-        <v>616</v>
+        <v>701</v>
       </c>
       <c r="E243" t="s">
-        <v>713</v>
+        <v>321</v>
       </c>
       <c r="F243">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>3445383107</v>
+        <v>3555313238</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -12805,7 +12763,7 @@
         <v>41</v>
       </c>
       <c r="M243" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N243">
         <v>550</v>
@@ -12825,19 +12783,19 @@
         <v>16518</v>
       </c>
       <c r="C244" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="D244" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
       <c r="E244" t="s">
-        <v>335</v>
+        <v>680</v>
       </c>
       <c r="F244">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>3555313238</v>
+        <v>3492124065</v>
       </c>
       <c r="J244">
         <v>0</v>
@@ -12849,7 +12807,7 @@
         <v>41</v>
       </c>
       <c r="M244" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N244">
         <v>550</v>
@@ -12869,19 +12827,19 @@
         <v>16518</v>
       </c>
       <c r="C245" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
       <c r="D245" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
       <c r="E245" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="F245">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>3492124065</v>
+        <v>3425315164</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -12893,7 +12851,7 @@
         <v>41</v>
       </c>
       <c r="M245" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N245">
         <v>550</v>
@@ -12913,19 +12871,19 @@
         <v>16518</v>
       </c>
       <c r="C246" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="D246" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="E246" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>3425315164</v>
+        <v>3449844455</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -12937,7 +12895,7 @@
         <v>41</v>
       </c>
       <c r="M246" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N246">
         <v>550</v>
@@ -12957,19 +12915,19 @@
         <v>16518</v>
       </c>
       <c r="C247" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="D247" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="E247" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="F247">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>3449844455</v>
+        <v>3426868637</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -12981,7 +12939,7 @@
         <v>41</v>
       </c>
       <c r="M247" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N247">
         <v>550</v>
@@ -13001,19 +12959,19 @@
         <v>16518</v>
       </c>
       <c r="C248" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
       <c r="D248" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="E248" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="F248">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>3426868637</v>
+        <v>3418908930</v>
       </c>
       <c r="J248">
         <v>0</v>
@@ -13025,7 +12983,7 @@
         <v>41</v>
       </c>
       <c r="M248" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N248">
         <v>550</v>
@@ -13045,19 +13003,19 @@
         <v>16518</v>
       </c>
       <c r="C249" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D249" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
       <c r="E249" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="F249">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>3418908930</v>
+        <v>3445383107</v>
       </c>
       <c r="J249">
         <v>0</v>
@@ -13069,7 +13027,7 @@
         <v>41</v>
       </c>
       <c r="M249" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N249">
         <v>550</v>
@@ -13089,19 +13047,16 @@
         <v>16518</v>
       </c>
       <c r="C250" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="D250" t="s">
-        <v>731</v>
-      </c>
-      <c r="E250" t="s">
-        <v>732</v>
+        <v>672</v>
       </c>
       <c r="F250">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>3445383107</v>
+        <v>3555423943</v>
       </c>
       <c r="J250">
         <v>0</v>
@@ -13113,7 +13068,7 @@
         <v>41</v>
       </c>
       <c r="M250" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N250">
         <v>550</v>
@@ -13127,22 +13082,31 @@
     </row>
     <row r="251" spans="1:16">
       <c r="A251">
-        <v>16518</v>
+        <v>16519</v>
       </c>
       <c r="B251">
-        <v>16518</v>
+        <v>16519</v>
       </c>
       <c r="C251" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="D251" t="s">
-        <v>686</v>
+        <v>708</v>
+      </c>
+      <c r="E251" t="s">
+        <v>721</v>
       </c>
       <c r="F251">
         <v>1</v>
       </c>
+      <c r="G251" t="s">
+        <v>630</v>
+      </c>
       <c r="H251">
-        <v>3555423943</v>
+        <v>3555654140</v>
+      </c>
+      <c r="I251" t="s">
+        <v>630</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -13151,16 +13115,16 @@
         <v>1001</v>
       </c>
       <c r="L251">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M251" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N251">
         <v>550</v>
       </c>
       <c r="O251">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="P251">
         <v>1009</v>
@@ -13174,25 +13138,25 @@
         <v>16519</v>
       </c>
       <c r="C252" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
       <c r="D252" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E252" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
       <c r="F252">
         <v>1</v>
       </c>
       <c r="G252" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H252">
-        <v>3555654140</v>
+        <v>3555297250</v>
       </c>
       <c r="I252" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J252">
         <v>0</v>
@@ -13204,7 +13168,7 @@
         <v>49</v>
       </c>
       <c r="M252" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N252">
         <v>550</v>
@@ -13224,25 +13188,25 @@
         <v>16519</v>
       </c>
       <c r="C253" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="D253" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="E253" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="F253">
         <v>1</v>
       </c>
       <c r="G253" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H253">
-        <v>3555297250</v>
+        <v>3555636408</v>
       </c>
       <c r="I253" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -13254,7 +13218,7 @@
         <v>49</v>
       </c>
       <c r="M253" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N253">
         <v>550</v>
@@ -13274,25 +13238,25 @@
         <v>16519</v>
       </c>
       <c r="C254" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
       <c r="D254" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="E254" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="F254">
         <v>1</v>
       </c>
       <c r="G254" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H254">
-        <v>3555636408</v>
+        <v>3555650675</v>
       </c>
       <c r="I254" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -13304,7 +13268,7 @@
         <v>49</v>
       </c>
       <c r="M254" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N254">
         <v>550</v>
@@ -13324,25 +13288,25 @@
         <v>16519</v>
       </c>
       <c r="C255" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D255" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="E255" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="F255">
         <v>1</v>
       </c>
       <c r="G255" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H255">
-        <v>3555650675</v>
+        <v>3555654307</v>
       </c>
       <c r="I255" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -13354,7 +13318,7 @@
         <v>49</v>
       </c>
       <c r="M255" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N255">
         <v>550</v>
@@ -13374,25 +13338,25 @@
         <v>16519</v>
       </c>
       <c r="C256" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D256" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="E256" t="s">
-        <v>747</v>
+        <v>157</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H256">
-        <v>3555654307</v>
+        <v>3555654303</v>
       </c>
       <c r="I256" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -13404,7 +13368,7 @@
         <v>49</v>
       </c>
       <c r="M256" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N256">
         <v>550</v>
@@ -13424,25 +13388,25 @@
         <v>16519</v>
       </c>
       <c r="C257" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="D257" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
       <c r="E257" t="s">
-        <v>171</v>
+        <v>738</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H257">
-        <v>3555654303</v>
+        <v>3555654102</v>
       </c>
       <c r="I257" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -13454,7 +13418,7 @@
         <v>49</v>
       </c>
       <c r="M257" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N257">
         <v>550</v>
@@ -13474,25 +13438,25 @@
         <v>16519</v>
       </c>
       <c r="C258" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
       <c r="D258" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="E258" t="s">
-        <v>752</v>
+        <v>740</v>
       </c>
       <c r="F258">
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H258">
         <v>3555654102</v>
       </c>
       <c r="I258" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -13504,7 +13468,7 @@
         <v>49</v>
       </c>
       <c r="M258" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N258">
         <v>550</v>
@@ -13524,25 +13488,25 @@
         <v>16519</v>
       </c>
       <c r="C259" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="D259" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="E259" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
       <c r="F259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G259" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H259">
-        <v>3555654102</v>
+        <v>3555468288</v>
       </c>
       <c r="I259" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -13554,7 +13518,7 @@
         <v>49</v>
       </c>
       <c r="M259" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N259">
         <v>550</v>
@@ -13574,25 +13538,25 @@
         <v>16519</v>
       </c>
       <c r="C260" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="D260" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="E260" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
       <c r="F260">
         <v>1</v>
       </c>
       <c r="G260" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H260">
-        <v>3555468288</v>
+        <v>3555751480</v>
       </c>
       <c r="I260" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -13604,7 +13568,7 @@
         <v>49</v>
       </c>
       <c r="M260" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N260">
         <v>550</v>
@@ -13624,25 +13588,25 @@
         <v>16519</v>
       </c>
       <c r="C261" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="D261" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="E261" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="H261">
-        <v>3555751480</v>
+        <v>3555554658</v>
       </c>
       <c r="I261" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J261">
         <v>0</v>
@@ -13654,7 +13618,7 @@
         <v>49</v>
       </c>
       <c r="M261" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N261">
         <v>550</v>
@@ -13674,25 +13638,22 @@
         <v>16519</v>
       </c>
       <c r="C262" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
       <c r="D262" t="s">
-        <v>762</v>
+        <v>96</v>
       </c>
       <c r="E262" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>644</v>
-      </c>
-      <c r="H262">
-        <v>3555554658</v>
+        <v>630</v>
       </c>
       <c r="I262" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="J262">
         <v>0</v>
@@ -13704,7 +13665,7 @@
         <v>49</v>
       </c>
       <c r="M262" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N262">
         <v>550</v>
@@ -13713,53 +13674,6 @@
         <v>1008</v>
       </c>
       <c r="P262">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="263" spans="1:16">
-      <c r="A263">
-        <v>16519</v>
-      </c>
-      <c r="B263">
-        <v>16519</v>
-      </c>
-      <c r="C263" t="s">
-        <v>764</v>
-      </c>
-      <c r="D263" t="s">
-        <v>110</v>
-      </c>
-      <c r="E263" t="s">
-        <v>765</v>
-      </c>
-      <c r="F263">
-        <v>0</v>
-      </c>
-      <c r="G263" t="s">
-        <v>644</v>
-      </c>
-      <c r="I263" t="s">
-        <v>644</v>
-      </c>
-      <c r="J263">
-        <v>0</v>
-      </c>
-      <c r="K263">
-        <v>1001</v>
-      </c>
-      <c r="L263">
-        <v>49</v>
-      </c>
-      <c r="M263" t="s">
-        <v>18</v>
-      </c>
-      <c r="N263">
-        <v>550</v>
-      </c>
-      <c r="O263">
-        <v>1008</v>
-      </c>
-      <c r="P263">
         <v>1009</v>
       </c>
     </row>
